--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\term3\knnapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\knnapp-main22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD696FA-3756-43DA-B5E3-7EFE6C5A6AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD850DCE-FECF-4464-A2B0-8E8F2F7E4342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{751C3ECF-2E7C-4481-A2C7-8CD1FED5F0F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{751C3ECF-2E7C-4481-A2C7-8CD1FED5F0F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>SEX</t>
   </si>
@@ -49,6 +45,15 @@
   </si>
   <si>
     <t>BODY</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>slim</t>
   </si>
 </sst>
 </file>
@@ -88,7 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -104,7 +109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -400,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42F28C4-FA9E-45BF-97C4-0A5480E0BDA2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,6 +428,176 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>180</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
